--- a/Web/uploadedFiles/订单信息.xlsx
+++ b/Web/uploadedFiles/订单信息.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingmile\Source\Repos\TraceBackPlatform\Web\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingmile\Source\Repos\TraceBackPlatform\Web\uploadedFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,6 +54,26 @@
   </si>
   <si>
     <t>发货日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送货地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货运公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货运单号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,11 +464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -457,12 +475,12 @@
     <col min="4" max="4" width="21.125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="20.75" customWidth="1"/>
+    <col min="7" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="18.25" customWidth="1"/>
+    <col min="14" max="14" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,13 +503,28 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -501,6 +534,11 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
